--- a/TestData/T1176_Companies_AddFVAOpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1176_Companies_AddFVAOpportunityOnCompanyDetailPage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5336E8-F5D1-4AC9-96CD-0520D7D1FC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -178,16 +179,16 @@
     <t>Oscar Aarts</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
-  </si>
-  <si>
     <t>BUS</t>
+  </si>
+  <si>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,11 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -513,21 +512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -549,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -557,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -565,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -579,39 +578,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -639,10 +638,10 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -660,23 +659,23 @@
       <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -687,7 +686,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -704,10 +703,10 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
       <c r="L2" t="s">
@@ -725,19 +724,19 @@
       <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -748,20 +747,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -769,9 +768,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>

--- a/TestData/T1176_Companies_AddFVAOpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1176_Companies_AddFVAOpportunityOnCompanyDetailPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5336E8-F5D1-4AC9-96CD-0520D7D1FC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE43295-6001-4980-9DD1-A4DE8FE02B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>Drew Koecher</t>
+    <t>Ayati Arvind</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
